--- a/experiments_learning_curve/learning_curve.xlsx
+++ b/experiments_learning_curve/learning_curve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\learning_curve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\experiments_learning_curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C13E9C-45F1-4E23-BBF7-BA676FA5206E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09165A45-01FB-485A-9024-4433735FB161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15255" yWindow="3015" windowWidth="20775" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3015" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,25 +430,25 @@
                   <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88600000000000001</c:v>
+                  <c:v>0.93799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91100000000000003</c:v>
+                  <c:v>0.95599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92800000000000005</c:v>
+                  <c:v>0.96740000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94350000000000001</c:v>
+                  <c:v>0.97689999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95289999999999997</c:v>
+                  <c:v>0.98240000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95589999999999997</c:v>
+                  <c:v>0.98519999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -647,28 +647,28 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.66</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91200000000000003</c:v>
+                  <c:v>0.95599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92400000000000004</c:v>
+                  <c:v>0.97099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94420000000000004</c:v>
+                  <c:v>0.98360000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95040000000000002</c:v>
+                  <c:v>0.98580000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96109999999999995</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.96640000000000004</c:v>
+                  <c:v>0.99219999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -751,7 +751,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Number of observations</a:t>
+                  <a:t>Number of samples</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
@@ -1915,7 +1915,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,7 +1943,7 @@
         <v>0.54</v>
       </c>
       <c r="C2" s="2">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1951,10 +1951,10 @@
         <v>100</v>
       </c>
       <c r="B3" s="2">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="C3" s="2">
-        <v>0.63</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1962,10 +1962,10 @@
         <v>500</v>
       </c>
       <c r="B4" s="2">
-        <v>0.88600000000000001</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="C4" s="2">
-        <v>0.91200000000000003</v>
+        <v>0.95599999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1973,10 +1973,10 @@
         <v>1000</v>
       </c>
       <c r="B5" s="2">
-        <v>0.91100000000000003</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="C5" s="2">
-        <v>0.92400000000000004</v>
+        <v>0.97099999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1984,10 +1984,10 @@
         <v>5000</v>
       </c>
       <c r="B6" s="2">
-        <v>0.92800000000000005</v>
+        <v>0.96740000000000004</v>
       </c>
       <c r="C6" s="2">
-        <v>0.94420000000000004</v>
+        <v>0.98360000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1995,10 +1995,10 @@
         <v>10000</v>
       </c>
       <c r="B7" s="2">
-        <v>0.94350000000000001</v>
+        <v>0.97689999999999999</v>
       </c>
       <c r="C7" s="2">
-        <v>0.95040000000000002</v>
+        <v>0.98580000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2006,10 +2006,10 @@
         <v>20000</v>
       </c>
       <c r="B8" s="2">
-        <v>0.95289999999999997</v>
+        <v>0.98240000000000005</v>
       </c>
       <c r="C8" s="2">
-        <v>0.96109999999999995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2017,10 +2017,10 @@
         <v>26548</v>
       </c>
       <c r="B9" s="2">
-        <v>0.95589999999999997</v>
+        <v>0.98519999999999996</v>
       </c>
       <c r="C9" s="2">
-        <v>0.96640000000000004</v>
+        <v>0.99219999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/experiments_learning_curve/learning_curve.xlsx
+++ b/experiments_learning_curve/learning_curve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\experiments_learning_curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09165A45-01FB-485A-9024-4433735FB161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5A0385-974E-4B02-90DE-2DB4341B29F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3015" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -215,11 +215,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -252,8 +252,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5056145504747706E-2"/>
-                  <c:y val="-5.3275371828521434E-2"/>
+                  <c:x val="-1.0645636104484376E-2"/>
+                  <c:y val="1.8178818849384472E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -296,8 +296,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.6220551576781645E-2"/>
-                  <c:y val="5.783572222523542E-2"/>
+                  <c:x val="-2.6220559423418922E-2"/>
+                  <c:y val="3.7828579067487059E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -318,8 +318,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.0458795861526557E-2"/>
-                  <c:y val="5.7835739282589678E-2"/>
+                  <c:x val="-2.0458776897132273E-2"/>
+                  <c:y val="4.0686742375736822E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -352,9 +352,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="accent6">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
+                      <a:srgbClr val="C00000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -477,7 +475,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -488,11 +486,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -503,8 +501,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.4922434306606498E-3"/>
-                  <c:y val="-3.7053418283779893E-2"/>
+                  <c:x val="-7.4899395449333417E-3"/>
+                  <c:y val="-5.4202479040323284E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -525,8 +523,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.3899629380498293E-2"/>
-                  <c:y val="3.6126284007361009E-2"/>
+                  <c:x val="-3.4000131893061128E-2"/>
+                  <c:y val="-3.8185962007132805E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -547,8 +545,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.0265115943075998E-2"/>
-                  <c:y val="-5.7835739282589678E-2"/>
+                  <c:x val="-2.0925704567622879E-2"/>
+                  <c:y val="-3.2112252450987561E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -581,9 +579,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
+                      <a:srgbClr val="00B050"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1914,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
